--- a/Doc/IndicatorType.xlsx
+++ b/Doc/IndicatorType.xlsx
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
